--- a/medicine/Sexualité et sexologie/Sans_enfant_par_choix/Sans_enfant_par_choix.xlsx
+++ b/medicine/Sexualité et sexologie/Sans_enfant_par_choix/Sans_enfant_par_choix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sans enfant par choix (en anglais : childfree) est un terme utilisé pour décrire les personnes qui choisissent de ne pas avoir d’enfants. Ce mouvement, né aux États-Unis dans les années 1970, en a débordé les frontières pour gagner principalement les pays développés. 
@@ -512,7 +524,9 @@
           <t>Distinction entre « sans enfant par choix » (childfree) et « sans enfant par contrainte » (childless)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il convient de faire la différence entre :
 les « sans enfant » par choix (childfree by choice) ;
@@ -549,15 +563,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amérique du Nord
-L’Organisation nationale des Non-Parents (NON) a été fondée en 1972 à Palo Alto[2], en Californie, par Ellen Peck et Shirley Radl. La NON a été créée pour défendre la notion qu’hommes et femmes peuvent volontairement décider de ne pas avoir d’enfant. Elle a par la suite changé de nom pour devenir l’Alliance nationale du choix d’être parent (National Alliance for Optional Parenthood). D’après son règlement, le but de l’Alliance était de montrer au grand public que ne pas avoir d’enfants est un choix de vie valide, ainsi que de soutenir les personnes qui ont choisi de ne pas avoir d’enfants, promouvoir la prise de conscience du problème de surpopulation et assister d’autres groupes qui poursuivent les mêmes objectifs de l’organisation.
+          <t>Amérique du Nord</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Organisation nationale des Non-Parents (NON) a été fondée en 1972 à Palo Alto, en Californie, par Ellen Peck et Shirley Radl. La NON a été créée pour défendre la notion qu’hommes et femmes peuvent volontairement décider de ne pas avoir d’enfant. Elle a par la suite changé de nom pour devenir l’Alliance nationale du choix d’être parent (National Alliance for Optional Parenthood). D’après son règlement, le but de l’Alliance était de montrer au grand public que ne pas avoir d’enfants est un choix de vie valide, ainsi que de soutenir les personnes qui ont choisi de ne pas avoir d’enfants, promouvoir la prise de conscience du problème de surpopulation et assister d’autres groupes qui poursuivent les mêmes objectifs de l’organisation.
 En 1984, l'organisation No Kidding! International est créée à Vancouver, au Canada par Jerry Steinberg, dans le but de faire connaître le mode de vie childfree et de permettre aux personnes de faire la différence entre childless et childfree. Elle s'étend dans plusieurs pays anglophones et organise des événements et rencontre childfree. En 2010, la convention No Kidding! International s'est tenue à Houston, Texas. 
-En 1991, l'auteure et professeure Leslie Lafayette fonde The Childfree Network, le premier réseau de personnes sans enfants. Une première conférence se tient à Sacramento en Californie[3]. 
-L'écrivaine américaine pro-childfree Laura Caroll créé l'International Childfree Day en 2013[4].
-Europe
-En Angleterre, Kidding Aside est une association fondée en 2000 afin de lutter pour les droits des personnes childfree[5].
-La Fête des Non-Parents, créée en 2009 par l’écrivain antinataliste Théophile de Giraud et la musicologue Frédérique Longrée, dont trois éditions auront lieu entre 2009 et 2011 en alternance à Paris et à Bruxelles. En 2012, il organise un happening à Paris avec le CLOD (Collectif des lutins obstinément dénatalistes) afin de sensibiliser l'opinion publique à la surpopulation. Il s'agit alors d'une distribution de préservatifs devant la basilique du Sacré-Cœur autour de banderoles réclamant une « grève des ventres »[6].
-L'Union des childfree francophones est une association loi de 1901 créée en 2014[7].
+En 1991, l'auteure et professeure Leslie Lafayette fonde The Childfree Network, le premier réseau de personnes sans enfants. Une première conférence se tient à Sacramento en Californie. 
+L'écrivaine américaine pro-childfree Laura Caroll créé l'International Childfree Day en 2013.
 </t>
         </is>
       </c>
@@ -583,30 +598,140 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Angleterre, Kidding Aside est une association fondée en 2000 afin de lutter pour les droits des personnes childfree.
+La Fête des Non-Parents, créée en 2009 par l’écrivain antinataliste Théophile de Giraud et la musicologue Frédérique Longrée, dont trois éditions auront lieu entre 2009 et 2011 en alternance à Paris et à Bruxelles. En 2012, il organise un happening à Paris avec le CLOD (Collectif des lutins obstinément dénatalistes) afin de sensibiliser l'opinion publique à la surpopulation. Il s'agit alors d'une distribution de préservatifs devant la basilique du Sacré-Cœur autour de banderoles réclamant une « grève des ventres ».
+L'Union des childfree francophones est une association loi de 1901 créée en 2014.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Motivations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>De nombreuses raisons peuvent être avancées quant au choix d'une vie sans enfants, et les personnes « sans enfant par choix » se retrouvent souvent dans plusieurs d'entre elles.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses raisons peuvent être avancées quant au choix d'une vie sans enfants, et les personnes « sans enfant par choix » se retrouvent souvent dans plusieurs d'entre elles.
 Les motivations sont très différentes, lorsqu'on demande à des personnes « sans enfant par choix » de les énumérer, de celles indiquées par un public général interrogé sur les motivations de ces personnes.  
-Les motivations énumérées ci-dessous se retrouvent notamment dans les ouvrages suivants (souvent via des témoignages directs de childfrees) : Émilie Devienne, Être femme sans être mère [8] ; Gisèle Palancz, Pas de bébé à bord[9] ; Nathalie Six, Pas d'enfants, ça se défend[10] ; Isabelle Tilmant, Épanouie avec ou sans enfant[11] et Edith Vallée, Pas d'enfant, dit-elle[12].
-Selon un sondage réalisé en 2010, 5% de la population française (6,3 % d’hommes et 4,3% de femmes) ne souhaite pas avoir d’enfant principalement pour « rester libre » et « l’épanouissement personnel »[13]. 
-Une étude française réalisée en 2017 sur 737 personnes se déclarant « childfree » sur un panel jeune (59% des personnes ayant répondu ont moins de 29 ans) présente les problématiques contemporaines de la non-parentalité choisie via ses permanences (notamment la stigmatisation des femmes ou le difficile accès à la stérilisation) et ses ruptures (par exemple le recours aux réseaux sociaux comme espace d’entraide ou la revendication de l’absence de désir d’être parent comme raison principale de ce choix de vie)[14]. 
-Pour l'opinion générale
-Ainsi, pour l'opinion générale, les motivations qui semblent les plus évidentes sont :
-absence d’instinct paternel ou maternel[15] ;
+Les motivations énumérées ci-dessous se retrouvent notamment dans les ouvrages suivants (souvent via des témoignages directs de childfrees) : Émilie Devienne, Être femme sans être mère  ; Gisèle Palancz, Pas de bébé à bord ; Nathalie Six, Pas d'enfants, ça se défend ; Isabelle Tilmant, Épanouie avec ou sans enfant et Edith Vallée, Pas d'enfant, dit-elle.
+Selon un sondage réalisé en 2010, 5% de la population française (6,3 % d’hommes et 4,3% de femmes) ne souhaite pas avoir d’enfant principalement pour « rester libre » et « l’épanouissement personnel ». 
+Une étude française réalisée en 2017 sur 737 personnes se déclarant « childfree » sur un panel jeune (59% des personnes ayant répondu ont moins de 29 ans) présente les problématiques contemporaines de la non-parentalité choisie via ses permanences (notamment la stigmatisation des femmes ou le difficile accès à la stérilisation) et ses ruptures (par exemple le recours aux réseaux sociaux comme espace d’entraide ou la revendication de l’absence de désir d’être parent comme raison principale de ce choix de vie). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Motivations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pour l'opinion générale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ainsi, pour l'opinion générale, les motivations qui semblent les plus évidentes sont :
+absence d’instinct paternel ou maternel ;
 absence d'intérêt pour les tâches propres à la vie de parent ;
 sentiment d'incapacité d’être un parent responsable ;
 refus de sacrifier son temps pour des enfants ;
-refus d'engager les dépenses liées au fait d’avoir des enfants.
-Pour les personnes concernées
-Respect de la femme et du fœtus
+refus d'engager les dépenses liées au fait d’avoir des enfants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Motivations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pour les personnes concernées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Respect de la femme et du fœtus
 risque qu’un état médical préexistant comme le diabète, la dépression ou une croissance extra-utérine puisse provoquer une grossesse difficile ou dangereuse, ou entraîner des difficultés pour élever l’enfant ;
 inquiétudes quant aux maladies héréditaires ou génétiques qui pourraient frapper l'enfant ;
 inquiétudes quant à la répartition des tâches dans le couple, l'éducation des enfants ;
 volonté de ne pas subir la grossesse et l'accouchement, voire parfois la tokophobie ;
-conviction que les femmes sont formatées dès l'enfance à un rôle de mère[16], ou que la maternité est un frein dans la vie d'une femme, comparé à l'impact qu'un enfant peut avoir sur la vie d'un homme.
+conviction que les femmes sont formatées dès l'enfance à un rôle de mère, ou que la maternité est un frein dans la vie d'une femme, comparé à l'impact qu'un enfant peut avoir sur la vie d'un homme.
 Respect de l'enfant 
 ferme conviction que le fait de créer une nouvelle vie est avant tout un acte égoïste. Le parent crée (lorsque c'est volontaire et réfléchi) ce nouvel être par égoïsme, non de façon désintéressée, et finalement pour des motivations pouvant apparaître vaines pour certaines d'entre elles, telles que : avoir un bébé (termes en définitive bien réducteurs et non représentatifs de ce que constitue réellement, à plus ou moins long terme, le fait d'engendrer un être humain), peur de se retrouver seul en fin de vie, moyen de retenir son conjoint, céder aux pressions familiales et plus généralement sociales, devenir une femme accomplie, avoir un statut social, faire perdurer le nom de famille, obtenir des aides sociales, transmettre ses gènes, voir à quoi ressemblerait un "mini-nous", payer les retraites futures, donner des petits-enfants aux parents, ou des cousins et neveux à la famille, etc. ;
 volonté de n'être ni auteur ni complice des problèmes liés à l'enfance : abandon, délaissement, harcèlement en milieu scolaire, mauvais traitements, traumatismes, etc. ;
@@ -639,104 +764,110 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sans_enfant_par_choix</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sans_enfant_par_choix</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Branches</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Si le mouvement childfree est né en opposition au pronatalisme, et poussé par les luttes de la deuxième vague féministe, plusieurs branches distinguent :
 les no kids ne veulent tout simplement pas d'enfant pour diverses raisons (non-désir d'enfant, désintérêt envers les enfants, etc.) ;
-les dénatalistes et anti-natalistes, et notamment le VHEMT (Voluntary Human Extinction Movement) fondé en 1991 par les U. Knight[17], prônent une diminution ou une extinction volontaire de l'humain par la non-procréation, pour des raisons écologiques, parfois par idéologie néomalthusianiste ou encore nihiliste ;
+les dénatalistes et anti-natalistes, et notamment le VHEMT (Voluntary Human Extinction Movement) fondé en 1991 par les U. Knight, prônent une diminution ou une extinction volontaire de l'humain par la non-procréation, pour des raisons écologiques, parfois par idéologie néomalthusianiste ou encore nihiliste ;
 les childfrees pro-choix, issus du féminisme pro-choix ; s'ils ne veulent pas d'enfants, ils ne sont pas dénatalistes car ils ne sont pas opposés à la procréation sous toutes ses formes, du moment qu'elle ne les concerne pas ;
 les GINKS, littéralement Green Inclination No Kids, qui renoncent à la parentalité pour des raisons écologiques.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sans_enfant_par_choix</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sans_enfant_par_choix</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Luttes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les courants, les childfrees soutiennent différentes causes : droit à disposer de son corps, prévention des maltraitances infantiles, des grossesses non désirées, renforcement du contrôle des naissances.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sans_enfant_par_choix</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sans_enfant_par_choix</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sans_enfant_par_choix</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Personnalités sans enfant par choix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Thomas Pesquet[18],[19]
-Richard Stallman[20],[21]
-Condoleezza Rice[22]
-Oprah Winfrey[22]
-Katharine Hepburn[22]
-Sabine Azéma[23]
-Salomé Saqué [24]</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Pesquet,
+Richard Stallman,
+Condoleezza Rice
+Oprah Winfrey
+Katharine Hepburn
+Sabine Azéma
+Salomé Saqué </t>
         </is>
       </c>
     </row>
